--- a/index.xlsx
+++ b/index.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="22068" windowHeight="9504"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22065" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>gospel</t>
   </si>
@@ -34,13 +34,124 @@
   </si>
   <si>
     <t>el sonido del silencio</t>
+  </si>
+  <si>
+    <t>al taller del maestro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hIfx8LKfDHU </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lNsDOmIoucs </t>
+  </si>
+  <si>
+    <t>alex zurdo</t>
+  </si>
+  <si>
+    <t>de la A a la Z</t>
+  </si>
+  <si>
+    <t>mañana es hoy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XQvUd7dCp7I </t>
+  </si>
+  <si>
+    <t>te busco</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b9AHzHHMfwY </t>
+  </si>
+  <si>
+    <t>pentagrama</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zwqn4ZL0w3w </t>
+  </si>
+  <si>
+    <t>guarda tu corazon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F_Z8LLQ2Qao </t>
+  </si>
+  <si>
+    <t>bye bye</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tF8R3J5yxXc </t>
+  </si>
+  <si>
+    <t>lo mio no pasa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TgQ3Bc14U6o </t>
+  </si>
+  <si>
+    <t>tengo victoria</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TvwZnvYpn34</t>
+  </si>
+  <si>
+    <t>almigthy</t>
+  </si>
+  <si>
+    <t>justo juez</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nTgWUUT6fFM </t>
+  </si>
+  <si>
+    <t>todo lo mejoras</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C2wjkxxwYqU </t>
+  </si>
+  <si>
+    <t>no me arrodillo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gkgZNg5IGsY </t>
+  </si>
+  <si>
+    <t>lazaro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hiJXL9GBL0c </t>
+  </si>
+  <si>
+    <t>genilipsis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7ZUpatLfxio </t>
+  </si>
+  <si>
+    <t>abel zabala</t>
+  </si>
+  <si>
+    <t>Jesus mi fiel amigo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MgNQC4zoAJ4 </t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>artista</t>
+  </si>
+  <si>
+    <t>cancion</t>
+  </si>
+  <si>
+    <t>enlace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,21 +166,56 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -80,9 +226,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -378,55 +527,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.7109375" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="58.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="2"/>
+    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="18.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:D18">
+    <sortCondition ref="A2:A18"/>
+    <sortCondition ref="B2:B18"/>
+    <sortCondition ref="C2:C18"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="https://www.youtube.com/watch?v=ttzUGdF6-w4"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://www.youtube.com/watch?v=AZMhEXEG9Jk"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://www.youtube.com/watch?v=ttzUGdF6-w4"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://www.youtube.com/watch?v=AZMhEXEG9Jk"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://www.youtube.com/watch?v=hIfx8LKfDHU"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://www.youtube.com/watch?v=lNsDOmIoucs"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://www.youtube.com/watch?v=XQvUd7dCp7I"/>
+    <hyperlink ref="D12" r:id="rId6" display="https://www.youtube.com/watch?v=b9AHzHHMfwY"/>
+    <hyperlink ref="D11" r:id="rId7" display="https://www.youtube.com/watch?v=Zwqn4ZL0w3w"/>
+    <hyperlink ref="D8" r:id="rId8" display="https://www.youtube.com/watch?v=F_Z8LLQ2Qao"/>
+    <hyperlink ref="D6" r:id="rId9" display="https://www.youtube.com/watch?v=tF8R3J5yxXc"/>
+    <hyperlink ref="D9" r:id="rId10" display="https://www.youtube.com/watch?v=TgQ3Bc14U6o"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://www.youtube.com/watch?v=nTgWUUT6fFM"/>
+    <hyperlink ref="D18" r:id="rId13" display="https://www.youtube.com/watch?v=C2wjkxxwYqU"/>
+    <hyperlink ref="D17" r:id="rId14" display="https://www.youtube.com/watch?v=gkgZNg5IGsY"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www.youtube.com/watch?v=hiJXL9GBL0c"/>
+    <hyperlink ref="D14" r:id="rId16" display="https://www.youtube.com/watch?v=7ZUpatLfxio"/>
+    <hyperlink ref="D2" r:id="rId17" display="https://www.youtube.com/watch?v=MgNQC4zoAJ4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -436,7 +830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -448,7 +842,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
